--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>86370.39669975804</v>
+        <v>84482.81518335597</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,19 +659,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>105.072146075243</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>123.2751712461471</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>59.68657692137189</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>110.9272034736103</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,22 +859,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -899,16 +899,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>153.7250799307423</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>43.53636164073672</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>107.1778636154932</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>58.97572708696871</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1136,13 +1136,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>393.278191272479</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1151,7 +1151,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>174.9239964210458</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,16 +1333,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>28.89264992377371</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>29.35994366372752</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1528,22 +1528,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>145.1054125963029</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>134.8930561484697</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.80232600720534</v>
       </c>
       <c r="S16" t="n">
-        <v>64.49208332113037</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1859,7 +1859,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I17" t="n">
         <v>81.77913505274077</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>44.4420620713426</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2059,13 +2059,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>69.27142932050921</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>17.78458198347545</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>216.1182517556562</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2530,16 +2530,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>208.5989924719902</v>
+        <v>286.2373523985774</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>256.6289271138771</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>115.5269768002164</v>
       </c>
       <c r="T28" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>286.2373523985774</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>69.99894609866047</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>112.0435644700706</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965521</v>
+        <v>93.41221638965511</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801203</v>
+        <v>91.23070601801193</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.217791394374</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>111.2903118348203</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897898</v>
+        <v>93.71057173897889</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571483</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523564</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.717553355046</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.344304429832</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.0340957700201</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.9343866952707</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.3197417080337</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>96.883241352181</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235375</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898724</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857176</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692858</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329065</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373699</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789464</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539627</v>
       </c>
       <c r="T34" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287487</v>
       </c>
       <c r="U34" t="n">
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593966</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898724</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857176</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692858</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329065</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.361678333737</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789555</v>
+        <v>80.78193823789553</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463138</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539627</v>
       </c>
       <c r="T37" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287487</v>
       </c>
       <c r="U37" t="n">
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593966</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3673,7 +3673,7 @@
         <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
         <v>80.78193823789547</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1374.814428194113</v>
+        <v>589.4492616060802</v>
       </c>
       <c r="C2" t="n">
-        <v>1268.68094731003</v>
+        <v>589.4492616060802</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>589.4492616060802</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>589.4492616060802</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>178.4633568164726</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4328,7 +4328,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V2" t="n">
-        <v>2134.880026519315</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W2" t="n">
-        <v>2134.880026519315</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="X2" t="n">
-        <v>1761.414268258235</v>
+        <v>1366.188433646014</v>
       </c>
       <c r="Y2" t="n">
-        <v>1761.414268258235</v>
+        <v>976.0491016702019</v>
       </c>
     </row>
     <row r="3">
@@ -4422,16 +4422,16 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>114.2324534581138</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="C4" t="n">
-        <v>114.2324534581138</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942404</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>550.5654064942404</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="V4" t="n">
-        <v>295.8809182883535</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="W4" t="n">
-        <v>295.8809182883535</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="X4" t="n">
-        <v>295.8809182883535</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="Y4" t="n">
-        <v>295.8809182883535</v>
+        <v>211.6471865296041</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1595.875667274027</v>
+        <v>1305.667163696621</v>
       </c>
       <c r="C5" t="n">
-        <v>1595.875667274027</v>
+        <v>1305.667163696621</v>
       </c>
       <c r="D5" t="n">
-        <v>1595.875667274027</v>
+        <v>947.4014650898705</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>947.4014650898705</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>536.415560300263</v>
       </c>
       <c r="G5" t="n">
         <v>381.1377017843616</v>
@@ -4565,7 +4565,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2653.172968148791</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2653.172968148791</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>2322.110080805221</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W5" t="n">
-        <v>1969.341425535107</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="X5" t="n">
-        <v>1595.875667274027</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="Y5" t="n">
-        <v>1595.875667274027</v>
+        <v>1305.667163696621</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4653,7 +4653,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>500.1394333084169</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C7" t="n">
-        <v>331.20325038051</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>424.8522003762303</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>424.8522003762303</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>424.8522003762303</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>424.8522003762303</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084169</v>
+        <v>424.8522003762303</v>
       </c>
       <c r="Y7" t="n">
-        <v>500.1394333084169</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1954.141365880777</v>
+        <v>1735.606436744359</v>
       </c>
       <c r="C8" t="n">
-        <v>1954.141365880777</v>
+        <v>1735.606436744359</v>
       </c>
       <c r="D8" t="n">
-        <v>1595.875667274027</v>
+        <v>1735.606436744359</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>1349.818184146114</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2344.280697856589</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2344.280697856589</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V8" t="n">
-        <v>2344.280697856589</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.280697856589</v>
+        <v>2125.74576872017</v>
       </c>
       <c r="X8" t="n">
-        <v>2344.280697856589</v>
+        <v>2125.74576872017</v>
       </c>
       <c r="Y8" t="n">
-        <v>1954.141365880777</v>
+        <v>1735.606436744359</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2643.317569050019</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>257.3478788207</v>
+        <v>520.9088977430001</v>
       </c>
       <c r="C10" t="n">
-        <v>257.3478788207</v>
+        <v>351.9727148150932</v>
       </c>
       <c r="D10" t="n">
-        <v>257.3478788207</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="E10" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.9444893339355</v>
+        <v>698.712065060056</v>
       </c>
       <c r="R10" t="n">
-        <v>698.9444893339355</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>484.6560661520982</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T10" t="n">
-        <v>257.3478788207</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U10" t="n">
-        <v>257.3478788207</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V10" t="n">
-        <v>257.3478788207</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="W10" t="n">
-        <v>257.3478788207</v>
+        <v>520.9088977430001</v>
       </c>
       <c r="X10" t="n">
-        <v>257.3478788207</v>
+        <v>520.9088977430001</v>
       </c>
       <c r="Y10" t="n">
-        <v>257.3478788207</v>
+        <v>520.9088977430001</v>
       </c>
     </row>
     <row r="11">
@@ -5018,25 +5018,25 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155881</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823783</v>
@@ -5051,7 +5051,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5066,22 +5066,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>190.6805289025653</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>339.7502131046251</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>953.6472828615138</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>584.7466045204288</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C13" t="n">
-        <v>415.8104215925219</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D13" t="n">
-        <v>415.8104215925219</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E13" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5197,52 +5197,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688058</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799351</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471178</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974665</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980062</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585745</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557901</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1352.345146723252</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1128.559731512757</v>
+        <v>1051.665544764099</v>
       </c>
       <c r="U13" t="n">
-        <v>839.4310927263157</v>
+        <v>762.5369059776569</v>
       </c>
       <c r="V13" t="n">
-        <v>584.7466045204288</v>
+        <v>762.5369059776569</v>
       </c>
       <c r="W13" t="n">
-        <v>584.7466045204288</v>
+        <v>473.1197359406963</v>
       </c>
       <c r="X13" t="n">
-        <v>584.7466045204288</v>
+        <v>245.130185042679</v>
       </c>
       <c r="Y13" t="n">
-        <v>584.7466045204288</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="14">
@@ -5267,19 +5267,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,13 +5288,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5364,16 +5364,16 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
         <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>545.6648329070714</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C16" t="n">
-        <v>545.6648329070714</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D16" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5437,49 +5437,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1446.590688732442</v>
       </c>
       <c r="S16" t="n">
-        <v>1433.77275205171</v>
+        <v>1446.590688732442</v>
       </c>
       <c r="T16" t="n">
-        <v>1209.987336841215</v>
+        <v>1222.805273521948</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.987336841215</v>
+        <v>933.6766347355065</v>
       </c>
       <c r="V16" t="n">
-        <v>955.3028486353285</v>
+        <v>933.6766347355065</v>
       </c>
       <c r="W16" t="n">
-        <v>955.3028486353285</v>
+        <v>644.2594646985458</v>
       </c>
       <c r="X16" t="n">
-        <v>727.3132977373111</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="Y16" t="n">
-        <v>727.3132977373111</v>
+        <v>416.2699138005285</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5495,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>564.4843764226425</v>
+        <v>414.0663679705858</v>
       </c>
       <c r="C19" t="n">
-        <v>395.5481934947356</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D19" t="n">
-        <v>395.5481934947356</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E19" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5674,19 +5674,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>898.7925182488381</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V19" t="n">
-        <v>898.7925182488381</v>
+        <v>955.1031435655734</v>
       </c>
       <c r="W19" t="n">
-        <v>609.3753482118775</v>
+        <v>665.6859735286129</v>
       </c>
       <c r="X19" t="n">
-        <v>609.3753482118775</v>
+        <v>595.7148328008255</v>
       </c>
       <c r="Y19" t="n">
-        <v>609.3753482118775</v>
+        <v>595.7148328008255</v>
       </c>
     </row>
     <row r="20">
@@ -5750,19 +5750,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5795,7 +5795,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5838,7 +5838,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5847,10 +5847,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>266.1532743881928</v>
+        <v>284.1174986139255</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>115.1813156860186</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>115.1813156860186</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>115.1813156860186</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>115.1813156860186</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>115.1813156860186</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>115.1813156860186</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5911,19 +5911,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T22" t="n">
-        <v>969.619892635627</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U22" t="n">
-        <v>969.619892635627</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V22" t="n">
-        <v>714.9354044297402</v>
+        <v>755.1831334811258</v>
       </c>
       <c r="W22" t="n">
-        <v>714.9354044297402</v>
+        <v>465.7659634441652</v>
       </c>
       <c r="X22" t="n">
-        <v>486.9458535317228</v>
+        <v>465.7659634441652</v>
       </c>
       <c r="Y22" t="n">
-        <v>266.1532743881928</v>
+        <v>465.7659634441652</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5963,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
         <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K23" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6011,28 +6011,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6054,40 +6054,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701561</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M24" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>882.7763375151582</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="C25" t="n">
-        <v>713.8401545872513</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="D25" t="n">
-        <v>563.7235151749155</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="E25" t="n">
-        <v>415.8104215925219</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="F25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6163,7 +6163,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
         <v>1498.916270557902</v>
@@ -6178,19 +6178,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>1064.424802345398</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>1064.424802345398</v>
+        <v>731.3177283550795</v>
       </c>
       <c r="W25" t="n">
-        <v>1064.424802345398</v>
+        <v>472.0965898562137</v>
       </c>
       <c r="X25" t="n">
-        <v>1064.424802345398</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="Y25" t="n">
-        <v>1064.424802345398</v>
+        <v>244.1070389581963</v>
       </c>
     </row>
     <row r="26">
@@ -6206,31 +6206,31 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6382,49 +6382,49 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.785188168807</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T28" t="n">
-        <v>1379.229518531122</v>
+        <v>1158.436939387593</v>
       </c>
       <c r="U28" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011509</v>
       </c>
       <c r="V28" t="n">
-        <v>835.4163915387938</v>
+        <v>614.6238123952639</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
         <v>97.21709146028584</v>
@@ -6452,19 +6452,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6528,37 +6528,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.043068977054</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.7457372049851</v>
+        <v>695.1010933248426</v>
       </c>
       <c r="C31" t="n">
-        <v>546.570419558449</v>
+        <v>581.9257756783064</v>
       </c>
       <c r="D31" t="n">
-        <v>452.2146454274841</v>
+        <v>487.5700015473416</v>
       </c>
       <c r="E31" t="n">
-        <v>360.0624171264619</v>
+        <v>395.4177732463195</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264619</v>
+        <v>304.28869102978</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276533</v>
+        <v>191.8742346309716</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864674</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.0876362933506</v>
       </c>
       <c r="L31" t="n">
-        <v>671.450905366751</v>
+        <v>671.4509053667515</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962056</v>
+        <v>997.6688721962059</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353694</v>
       </c>
       <c r="P31" t="n">
         <v>1842.641396021648</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056076</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1936.126063056076</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1791.966918252999</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167071</v>
+        <v>1623.942368323876</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662</v>
+        <v>1390.574594818805</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737484</v>
+        <v>1191.650971894289</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818942</v>
+        <v>957.9946671386997</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652481</v>
+        <v>860.1328071870017</v>
       </c>
       <c r="Y31" t="n">
-        <v>730.4517433652481</v>
+        <v>695.1010933248426</v>
       </c>
     </row>
     <row r="32">
@@ -6677,49 +6677,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6765,13 +6765,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
@@ -6780,25 +6780,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.460239110832</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229662</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506714</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083192</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504506</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982974</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6880,28 +6880,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U34" t="n">
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045199</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010308</v>
       </c>
     </row>
     <row r="35">
@@ -6914,40 +6914,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643324</v>
@@ -6956,28 +6956,28 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7002,40 +7002,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F37" t="n">
         <v>320.8847398504513</v>
@@ -7087,13 +7087,13 @@
         <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982974</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254956</v>
@@ -7114,31 +7114,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="38">
@@ -7160,46 +7160,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7248,7 +7248,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7269,10 +7269,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254956</v>
@@ -7354,13 +7354,13 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U40" t="n">
         <v>1489.892037025262</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="41">
@@ -7394,49 +7394,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7485,7 +7485,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7506,10 +7506,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108319</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229661</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506714</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083197</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045196</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010305</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,7 +7722,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7743,10 +7743,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7783,34 +7783,34 @@
         <v>659.4602391108328</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229671</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -8070,13 +8070,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,10 +8301,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>90.64146763747218</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,16 +8766,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>52.49733361305233</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,10 +8784,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445217</v>
@@ -9018,16 +9018,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,16 +9714,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>253.7371603504737</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>277.6717966208054</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10604,7 +10604,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>212.314990659903</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>52.81539738730038</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>86.65450490991959</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,7 +23668,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>58.16202639658744</v>
       </c>
       <c r="S16" t="n">
-        <v>133.4287266624729</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>135.3899181105947</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -23947,13 +23947,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>156.4382260685279</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>92.63466348079653</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>5.42930930273306</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24412,22 +24412,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>77.63835992658716</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>29.89407122271393</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633777</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338673</v>
       </c>
       <c r="T28" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>54.62977745471968</v>
+        <v>124.6287235533801</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.2177913943741</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571473</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523553</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>73.62315740829889</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1096716.728174994</v>
+        <v>1096716.728174995</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1096716.728174994</v>
+        <v>1096716.728174995</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1096716.728174995</v>
+        <v>1096716.728174994</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1096716.728174995</v>
+        <v>1096716.728174994</v>
       </c>
     </row>
     <row r="11">
@@ -26314,7 +26314,7 @@
         <v>307890.6636991064</v>
       </c>
       <c r="C2" t="n">
-        <v>307890.6636991065</v>
+        <v>307890.6636991063</v>
       </c>
       <c r="D2" t="n">
         <v>307890.6636991064</v>
@@ -26323,34 +26323,34 @@
         <v>293271.7948032815</v>
       </c>
       <c r="F2" t="n">
-        <v>293271.7948032814</v>
+        <v>293271.7948032815</v>
       </c>
       <c r="G2" t="n">
         <v>293271.7948032814</v>
       </c>
       <c r="H2" t="n">
+        <v>293271.7948032815</v>
+      </c>
+      <c r="I2" t="n">
         <v>293271.7948032814</v>
       </c>
-      <c r="I2" t="n">
-        <v>293271.7948032813</v>
-      </c>
       <c r="J2" t="n">
-        <v>293271.7948032816</v>
+        <v>293271.7948032815</v>
       </c>
       <c r="K2" t="n">
-        <v>305116.6030089527</v>
+        <v>305116.6030089525</v>
       </c>
       <c r="L2" t="n">
-        <v>307890.6636991061</v>
+        <v>307890.6636991063</v>
       </c>
       <c r="M2" t="n">
-        <v>307890.6636991063</v>
+        <v>307890.6636991064</v>
       </c>
       <c r="N2" t="n">
         <v>307890.6636991063</v>
       </c>
       <c r="O2" t="n">
-        <v>307890.6636991063</v>
+        <v>307890.6636991062</v>
       </c>
       <c r="P2" t="n">
         <v>307890.6636991063</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.112582251356799e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925927</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284572</v>
+        <v>44162.60530284585</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086681</v>
+        <v>10342.90680086668</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284575</v>
+        <v>44162.60530284583</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26424,40 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687069</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687073</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106727</v>
+        <v>40339.2301010673</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.39482819117</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.39482819117</v>
       </c>
       <c r="N4" t="n">
         <v>44593.39482819119</v>
       </c>
       <c r="O4" t="n">
+        <v>44593.39482819122</v>
+      </c>
+      <c r="P4" t="n">
         <v>44593.39482819119</v>
-      </c>
-      <c r="P4" t="n">
-        <v>44593.3948281912</v>
       </c>
     </row>
     <row r="5">
@@ -26479,37 +26479,37 @@
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="I5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-530569.161365372</v>
+        <v>-530569.1613653719</v>
       </c>
       <c r="C6" t="n">
-        <v>59398.71784917262</v>
+        <v>59398.71784917245</v>
       </c>
       <c r="D6" t="n">
-        <v>59398.71784917256</v>
+        <v>59398.71784917254</v>
       </c>
       <c r="E6" t="n">
-        <v>-346050.175209202</v>
+        <v>-346147.6343351743</v>
       </c>
       <c r="F6" t="n">
-        <v>179109.861267694</v>
+        <v>179012.4021417219</v>
       </c>
       <c r="G6" t="n">
-        <v>179109.8612676941</v>
+        <v>179012.4021417219</v>
       </c>
       <c r="H6" t="n">
-        <v>179109.861267694</v>
+        <v>179012.402141722</v>
       </c>
       <c r="I6" t="n">
-        <v>179109.8612676939</v>
+        <v>179012.4021417216</v>
       </c>
       <c r="J6" t="n">
-        <v>2686.642075101307</v>
+        <v>2589.182949129375</v>
       </c>
       <c r="K6" t="n">
-        <v>123986.5590748169</v>
+        <v>123968.0653368822</v>
       </c>
       <c r="L6" t="n">
-        <v>155239.2562500227</v>
+        <v>155239.256250023</v>
       </c>
       <c r="M6" t="n">
-        <v>30781.14781705244</v>
+        <v>30781.14781705262</v>
       </c>
       <c r="N6" t="n">
-        <v>165582.1630508896</v>
+        <v>165582.1630508899</v>
       </c>
       <c r="O6" t="n">
         <v>165582.1630508896</v>
       </c>
       <c r="P6" t="n">
-        <v>121419.5577480439</v>
+        <v>121419.5577480438</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855724</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26741,34 +26741,34 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108352</v>
+        <v>12.92863350108335</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855728</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855731</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,19 +27379,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>260.2007456957646</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>290.5089987746479</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>88.92889609684048</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>24.03841831872793</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,22 +27579,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27619,16 +27619,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>260.0590900900527</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>172.9119587169211</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>41.43760940271919</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>166.0593783711156</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,13 +27856,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>13.59785446923246</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>41.52432393661195</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27913,7 +27913,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28011,13 +28011,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,13 +28026,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.2301000311405907</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>257.1630546728635</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28272,7 +28272,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-1.333925562600295e-12</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855724</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855724</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855724</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855724</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855724</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855724</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855724</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855724</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855724</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855724</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855724</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855724</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855724</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855724</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855724</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855724</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855724</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855724</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855724</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855724</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855724</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855724</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855724</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855724</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
     </row>
     <row r="38">
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31513,16 +31513,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
         <v>193.1674799081577</v>
@@ -31534,25 +31534,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,31 +31592,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33184,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33257,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33348,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,10 +33585,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,10 +33822,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35021,10 +35021,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535713</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,13 +35331,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,16 +35486,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.40751256795902</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980129</v>
@@ -35504,10 +35504,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,7 +35568,7 @@
         <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299092</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,19 +35732,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>462.3874039146953</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,22 +36206,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M24" t="n">
-        <v>564.1615374009399</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523302</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686869</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36516,25 +36516,25 @@
         <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556546</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,10 +36765,10 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
         <v>39.22569997187476</v>
@@ -36835,25 +36835,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>334.8610358541607</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412269</v>
+        <v>67.71102679412279</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584678</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084858</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075298</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.480134434161</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491601</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.586857240358</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043192</v>
+        <v>94.42895660043202</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37306,28 +37306,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502032</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37549,7 +37549,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37637,13 +37637,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37786,7 +37786,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37874,13 +37874,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38023,7 +38023,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38111,13 +38111,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
